--- a/src/test/resources/expected_regist_user_01.xlsx
+++ b/src/test/resources/expected_regist_user_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace\regist_user\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8419584D-3345-4CA8-B645-F895D6A204F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA716979-8222-4E30-931A-DD2181BDEA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -52,33 +52,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト太郎</t>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストタロウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testsamplebefore24@test.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>123-4567</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>123-4567-8910</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tarotaro150</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -105,24 +78,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都北区赤羽ってところ</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アカバネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>000-1234-1234</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>morimori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>del_frag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -474,7 +438,7 @@
     <col min="11" max="11" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +460,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -511,45 +478,24 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7015A5A2-E592-47DE-80B4-0CE227DECDB7}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{39926A09-1BD7-463F-ACFA-200E8A53B717}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{39926A09-1BD7-463F-ACFA-200E8A53B717}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>